--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G522"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13013,7 +13013,9 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B522" t="inlineStr"/>
+      <c r="B522" t="n">
+        <v>333.9471428571428</v>
+      </c>
       <c r="C522" t="n">
         <v>396.97</v>
       </c>
@@ -13029,6 +13031,195 @@
       <c r="G522" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>364.1685714285715</v>
+      </c>
+      <c r="C523" t="n">
+        <v>374.45</v>
+      </c>
+      <c r="D523" t="n">
+        <v>369.51</v>
+      </c>
+      <c r="E523" t="n">
+        <v>364.3157142857143</v>
+      </c>
+      <c r="F523" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>370.6871428571428</v>
+      </c>
+      <c r="C524" t="n">
+        <v>368.85</v>
+      </c>
+      <c r="D524" t="n">
+        <v>383.06</v>
+      </c>
+      <c r="E524" t="n">
+        <v>372.0214285714285</v>
+      </c>
+      <c r="F524" t="n">
+        <v>370.91</v>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>386.2095238095238</v>
+      </c>
+      <c r="C525" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="D525" t="n">
+        <v>393.1033333333333</v>
+      </c>
+      <c r="E525" t="n">
+        <v>393.5885714285714</v>
+      </c>
+      <c r="F525" t="n">
+        <v>386.2333333333333</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>368.8961904761905</v>
+      </c>
+      <c r="C526" t="n">
+        <v>403.06</v>
+      </c>
+      <c r="D526" t="n">
+        <v>405.8466666666667</v>
+      </c>
+      <c r="E526" t="n">
+        <v>392.7585714285714</v>
+      </c>
+      <c r="F526" t="n">
+        <v>395.4966666666666</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>367.9471428571428</v>
+      </c>
+      <c r="C527" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="D527" t="n">
+        <v>409.52</v>
+      </c>
+      <c r="E527" t="n">
+        <v>394.6114285714286</v>
+      </c>
+      <c r="F527" t="n">
+        <v>391.81</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>380.6666666666667</v>
+      </c>
+      <c r="C528" t="n">
+        <v>376.91</v>
+      </c>
+      <c r="D528" t="n">
+        <v>400.1933333333333</v>
+      </c>
+      <c r="E528" t="n">
+        <v>402.07</v>
+      </c>
+      <c r="F528" t="n">
+        <v>388.2233333333333</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>364.5709523809524</v>
+      </c>
+      <c r="C529" t="n">
+        <v>375.83</v>
+      </c>
+      <c r="D529" t="n">
+        <v>393.3233333333333</v>
+      </c>
+      <c r="E529" t="n">
+        <v>401.9628571428572</v>
+      </c>
+      <c r="F529" t="n">
+        <v>389.2133333333333</v>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19001,6 +19192,76 @@
       </c>
       <c r="B595" t="n">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -19169,28 +19430,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.562071368737614</v>
+        <v>0.7050461820842704</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02258015751884479</v>
+        <v>0.03549748691217813</v>
       </c>
       <c r="M2" t="n">
-        <v>21.74790761817405</v>
+        <v>22.25951573645799</v>
       </c>
       <c r="N2" t="n">
-        <v>753.151943421511</v>
+        <v>764.2615627370558</v>
       </c>
       <c r="O2" t="n">
-        <v>27.4436138914231</v>
+        <v>27.64528102112648</v>
       </c>
       <c r="P2" t="n">
-        <v>319.1687224920598</v>
+        <v>317.8380780476732</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19246,28 +19507,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.188265137039569</v>
+        <v>1.282693070015209</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K3" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04028838383043143</v>
+        <v>0.04828489280986714</v>
       </c>
       <c r="M3" t="n">
-        <v>34.28481557349342</v>
+        <v>33.93798042969367</v>
       </c>
       <c r="N3" t="n">
-        <v>1761.645728852607</v>
+        <v>1740.855349726898</v>
       </c>
       <c r="O3" t="n">
-        <v>41.97196360491854</v>
+        <v>41.72355868962879</v>
       </c>
       <c r="P3" t="n">
-        <v>329.0083326555617</v>
+        <v>328.0864756920693</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19323,28 +19584,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.272992793853189</v>
+        <v>1.293279341675306</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K4" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1368454826483904</v>
+        <v>0.1448347874871538</v>
       </c>
       <c r="M4" t="n">
-        <v>18.76302289340778</v>
+        <v>18.63693315220262</v>
       </c>
       <c r="N4" t="n">
-        <v>576.6586039669138</v>
+        <v>569.5158426347027</v>
       </c>
       <c r="O4" t="n">
-        <v>24.0137169960611</v>
+        <v>23.86453105834478</v>
       </c>
       <c r="P4" t="n">
-        <v>355.3925882895762</v>
+        <v>355.2047467856746</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19400,28 +19661,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7512328795242548</v>
+        <v>0.7633429656653539</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0702270693508863</v>
+        <v>0.07440956946216126</v>
       </c>
       <c r="M5" t="n">
-        <v>15.52253494153458</v>
+        <v>15.47974112084602</v>
       </c>
       <c r="N5" t="n">
-        <v>397.3082576478396</v>
+        <v>393.7986214806975</v>
       </c>
       <c r="O5" t="n">
-        <v>19.93259284809278</v>
+        <v>19.8443599413208</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1944123705524</v>
+        <v>366.0767609535571</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19477,28 +19738,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7034941768912363</v>
+        <v>0.6967485218751875</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K6" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05379787714506101</v>
+        <v>0.05439945814133296</v>
       </c>
       <c r="M6" t="n">
-        <v>17.0045847942076</v>
+        <v>16.88094559182163</v>
       </c>
       <c r="N6" t="n">
-        <v>463.4950398528882</v>
+        <v>458.2642837224657</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52893494469451</v>
+        <v>21.40710825222467</v>
       </c>
       <c r="P6" t="n">
-        <v>366.6951921976072</v>
+        <v>366.7604353564615</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19535,7 +19796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G522"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35814,7 +36075,11 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B522" t="inlineStr"/>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-36.83633981581397,174.42769005751043</t>
+        </is>
+      </c>
       <c r="C522" t="inlineStr">
         <is>
           <t>-36.83586567117422,174.42671932134556</t>
@@ -35838,6 +36103,265 @@
       <c r="G522" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-36.836436083741766,174.42737306206087</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-36.83579393670118,174.4269555346659</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-36.8351032975486,174.42669766576475</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-36.834411842616376,174.42644246319793</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-36.8337117769421,174.42621559442912</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-36.83645684801746,174.42730468803546</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-36.83577609857239,174.42701427325397</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-36.83514645913734,174.42655554041627</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-36.834436387979885,174.42636163899184</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-36.83375793238715,174.42606361200654</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-36.836506292897816,174.42714187189068</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-36.835785877692956,174.42698207192433</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-36.83517845063287,174.42645019623257</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-36.834505086497806,174.42613542383316</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-36.833806742067075,174.42590288872915</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-36.83645114311658,174.42732347353927</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-36.835885069982304,174.42665544297608</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-36.835219042431675,174.42631653170997</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-36.83450244267978,174.42614412961072</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-36.83383624862023,174.42580572743765</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-36.83644812001848,174.42733342820682</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-36.83590112414282,174.42660257809348</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-36.835230743205294,174.4262780021763</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-36.83450834462727,174.42612469519767</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-36.83382450546736,174.42584439617247</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-36.83648863674578,174.42720001161928</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-36.835801772727315,174.42692973163435</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-36.835201034683536,174.42637582940785</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-36.83453210255086,174.4260464630382</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-36.833813080833,174.42588201601487</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-36.836437365488294,174.42736884144313</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-36.8357983325214,174.42694105979518</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-36.83517915140805,174.42644788865897</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-36.834531761267115,174.42604758684854</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-36.83381623428808,174.4258716321004</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -19275,7 +19275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19366,35 +19366,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19453,27 +19458,28 @@
       <c r="P2" t="n">
         <v>317.8380780476732</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.43119280645027 -36.83527599882106, 174.4215399091929 -36.83820735365742)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4311928064503</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.83527599882106</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4215399091929</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.83820735365742</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4263663578216</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.83674167623924</v>
       </c>
     </row>
@@ -19530,27 +19536,28 @@
       <c r="P3" t="n">
         <v>328.0864756920693</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.43088309137391 -36.83460110835736, 174.4212302403788 -36.837532454775136)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4308830913739</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.83460110835736</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4212302403788</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.83753245477514</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4260566658764</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.83606678156625</v>
       </c>
     </row>
@@ -19607,27 +19614,28 @@
       <c r="P4" t="n">
         <v>355.2047467856746</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.43057337629784 -36.83392621193864, 174.42092057156424 -36.83685754993831)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4305733762978</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.83392621193864</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4209205715642</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.83685754993831</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.425746973931</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.83539188093847</v>
       </c>
     </row>
@@ -19684,27 +19692,28 @@
       <c r="P5" t="n">
         <v>366.0767609535571</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.430263661222 -36.83325130956494, 174.42061090274913 -36.83618263914703)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.430263661222</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.83325130956494</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4206109027491</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.83618263914703</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4254372819856</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.83471697435598</v>
       </c>
     </row>
@@ -19761,27 +19770,28 @@
       <c r="P6" t="n">
         <v>366.7604353564615</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.42995394614644 -36.832576401236395, 174.4203012339335 -36.83550772240115)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4299539461464</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.83257640123639</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4203012339335</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.83550772240115</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4251275900399</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.83404206181877</v>
       </c>
     </row>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13218,6 +13218,160 @@
         <v>389.2133333333333</v>
       </c>
       <c r="G529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>312.7847619047619</v>
+      </c>
+      <c r="C530" t="n">
+        <v>382.3</v>
+      </c>
+      <c r="D530" t="n">
+        <v>389.9466666666667</v>
+      </c>
+      <c r="E530" t="n">
+        <v>397.2942857142857</v>
+      </c>
+      <c r="F530" t="n">
+        <v>407.8066666666667</v>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>315.7938095238095</v>
+      </c>
+      <c r="C531" t="n">
+        <v>366.11</v>
+      </c>
+      <c r="D531" t="n">
+        <v>380.2433333333333</v>
+      </c>
+      <c r="E531" t="n">
+        <v>385.5914285714285</v>
+      </c>
+      <c r="F531" t="n">
+        <v>396.3233333333333</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>308.8857142857143</v>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>319.0961904761905</v>
+      </c>
+      <c r="C533" t="n">
+        <v>328.6</v>
+      </c>
+      <c r="D533" t="n">
+        <v>391.5366666666667</v>
+      </c>
+      <c r="E533" t="n">
+        <v>390.6485714285715</v>
+      </c>
+      <c r="F533" t="n">
+        <v>401.9666666666667</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>325.0147619047619</v>
+      </c>
+      <c r="C534" t="n">
+        <v>335.99</v>
+      </c>
+      <c r="D534" t="n">
+        <v>399.4266666666667</v>
+      </c>
+      <c r="E534" t="n">
+        <v>392.4142857142857</v>
+      </c>
+      <c r="F534" t="n">
+        <v>400.7166666666667</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>308.5033333333333</v>
+      </c>
+      <c r="C535" t="n">
+        <v>352.91</v>
+      </c>
+      <c r="D535" t="n">
+        <v>372.6066666666667</v>
+      </c>
+      <c r="E535" t="n">
+        <v>372.39</v>
+      </c>
+      <c r="F535" t="n">
+        <v>372.8266666666667</v>
+      </c>
+      <c r="G535" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -13234,7 +13388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19262,6 +19416,66 @@
       </c>
       <c r="B602" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -19435,28 +19649,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7050461820842704</v>
+        <v>0.6403578592297776</v>
       </c>
       <c r="J2" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03549748691217813</v>
+        <v>0.03021548090784132</v>
       </c>
       <c r="M2" t="n">
-        <v>22.25951573645799</v>
+        <v>22.10581895897271</v>
       </c>
       <c r="N2" t="n">
-        <v>764.2615627370558</v>
+        <v>759.2282528683955</v>
       </c>
       <c r="O2" t="n">
-        <v>27.64528102112648</v>
+        <v>27.55409684363462</v>
       </c>
       <c r="P2" t="n">
-        <v>317.8380780476732</v>
+        <v>318.4467502351952</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19513,28 +19727,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.282693070015209</v>
+        <v>1.260410137909954</v>
       </c>
       <c r="J3" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04828489280986714</v>
+        <v>0.04793881826270874</v>
       </c>
       <c r="M3" t="n">
-        <v>33.93798042969367</v>
+        <v>33.74388716775511</v>
       </c>
       <c r="N3" t="n">
-        <v>1740.855349726898</v>
+        <v>1722.434653561817</v>
       </c>
       <c r="O3" t="n">
-        <v>41.72355868962879</v>
+        <v>41.5022246820796</v>
       </c>
       <c r="P3" t="n">
-        <v>328.0864756920693</v>
+        <v>328.3071499636272</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19591,28 +19805,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.293279341675306</v>
+        <v>1.289051623801316</v>
       </c>
       <c r="J4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1448347874871538</v>
+        <v>0.1472901275260524</v>
       </c>
       <c r="M4" t="n">
-        <v>18.63693315220262</v>
+        <v>18.49786424809061</v>
       </c>
       <c r="N4" t="n">
-        <v>569.5158426347027</v>
+        <v>563.2406464955674</v>
       </c>
       <c r="O4" t="n">
-        <v>23.86453105834478</v>
+        <v>23.73269151393426</v>
       </c>
       <c r="P4" t="n">
-        <v>355.2047467856746</v>
+        <v>355.2442312735618</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19669,28 +19883,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7633429656653539</v>
+        <v>0.7680934502786866</v>
       </c>
       <c r="J5" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07440956946216126</v>
+        <v>0.07702154708650732</v>
       </c>
       <c r="M5" t="n">
-        <v>15.47974112084602</v>
+        <v>15.37854279925268</v>
       </c>
       <c r="N5" t="n">
-        <v>393.7986214806975</v>
+        <v>389.8897532190912</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8443599413208</v>
+        <v>19.74562617946291</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0767609535571</v>
+        <v>366.0307388801851</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19747,28 +19961,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6967485218751875</v>
+        <v>0.7238785019640364</v>
       </c>
       <c r="J6" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05439945814133296</v>
+        <v>0.05951512085917199</v>
       </c>
       <c r="M6" t="n">
-        <v>16.88094559182163</v>
+        <v>16.86029303640029</v>
       </c>
       <c r="N6" t="n">
-        <v>458.2642837224657</v>
+        <v>455.8946666341178</v>
       </c>
       <c r="O6" t="n">
-        <v>21.40710825222467</v>
+        <v>21.35169001821912</v>
       </c>
       <c r="P6" t="n">
-        <v>366.7604353564615</v>
+        <v>366.4920867902113</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19806,7 +20020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36375,6 +36589,212 @@
         </is>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-36.83627240425901,174.4279120312571</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-36.83581894188732,174.42687319570487</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-36.835168395565994,174.42648330641222</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-36.83451689038687,174.42609655500127</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-36.83387545961897,174.42567661013632</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-36.83628198943305,174.42788046916317</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-36.83576737062043,174.42704301319577</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-36.83513748706192,174.42658508432143</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-36.83447961298924,174.42621930494812</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-36.8338388818029,174.4257970566889</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-36.836259984021304,174.42795292860617</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-36.83629250899658,174.4278458302677</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-36.83564788618325,174.42743645602863</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-36.835173460262894,174.42646662895217</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-36.834495721645574,174.42616626116293</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-36.833856857505126,174.42573786482748</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-36.83631136227463,174.4277837499502</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-36.83567142640677,174.42735894233115</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-36.8351985925928,174.42638387095664</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-36.83450134601841,174.42614774078504</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-36.833852875884276,174.42575097584475</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-36.83625876596353,174.42795693942267</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-36.83572532345695,174.42718146829546</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-36.835113161552464,174.42666518498007</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-36.83443756200593,174.4263577730941</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-36.83376403759047,174.4260435084974</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13374,6 +13374,60 @@
       <c r="G535" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>297.9947619047619</v>
+      </c>
+      <c r="C536" t="n">
+        <v>387.32</v>
+      </c>
+      <c r="D536" t="n">
+        <v>400.9066666666667</v>
+      </c>
+      <c r="E536" t="n">
+        <v>404.1242857142857</v>
+      </c>
+      <c r="F536" t="n">
+        <v>400.9666666666667</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>311.4542857142857</v>
+      </c>
+      <c r="C537" t="n">
+        <v>387.74</v>
+      </c>
+      <c r="D537" t="n">
+        <v>396.82</v>
+      </c>
+      <c r="E537" t="n">
+        <v>402.4528571428572</v>
+      </c>
+      <c r="F537" t="n">
+        <v>395.07</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19476,6 +19530,26 @@
       </c>
       <c r="B608" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -19649,28 +19723,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6403578592297776</v>
+        <v>0.6094964948169884</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K2" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03021548090784132</v>
+        <v>0.02758127033483493</v>
       </c>
       <c r="M2" t="n">
-        <v>22.10581895897271</v>
+        <v>22.0857023416346</v>
       </c>
       <c r="N2" t="n">
-        <v>759.2282528683955</v>
+        <v>760.2147605596725</v>
       </c>
       <c r="O2" t="n">
-        <v>27.55409684363462</v>
+        <v>27.57199232118841</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4467502351952</v>
+        <v>318.738453200812</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19727,28 +19801,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.260410137909954</v>
+        <v>1.290096858990642</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04793881826270874</v>
+        <v>0.05058025178751291</v>
       </c>
       <c r="M3" t="n">
-        <v>33.74388716775511</v>
+        <v>33.66706385360403</v>
       </c>
       <c r="N3" t="n">
-        <v>1722.434653561817</v>
+        <v>1716.661303451205</v>
       </c>
       <c r="O3" t="n">
-        <v>41.5022246820796</v>
+        <v>41.43261159342003</v>
       </c>
       <c r="P3" t="n">
-        <v>328.3071499636272</v>
+        <v>328.0130821669152</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19805,28 +19879,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.289051623801316</v>
+        <v>1.299257746136879</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K4" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1472901275260524</v>
+        <v>0.1505655961604534</v>
       </c>
       <c r="M4" t="n">
-        <v>18.49786424809061</v>
+        <v>18.45196222921498</v>
       </c>
       <c r="N4" t="n">
-        <v>563.2406464955674</v>
+        <v>560.8789966531668</v>
       </c>
       <c r="O4" t="n">
-        <v>23.73269151393426</v>
+        <v>23.68288404424526</v>
       </c>
       <c r="P4" t="n">
-        <v>355.2442312735618</v>
+        <v>355.1485589549665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19883,28 +19957,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7680934502786866</v>
+        <v>0.7849841101968538</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07702154708650732</v>
+        <v>0.08068478338969964</v>
       </c>
       <c r="M5" t="n">
-        <v>15.37854279925268</v>
+        <v>15.38431467055789</v>
       </c>
       <c r="N5" t="n">
-        <v>389.8897532190912</v>
+        <v>389.4499323035303</v>
       </c>
       <c r="O5" t="n">
-        <v>19.74562617946291</v>
+        <v>19.73448586367353</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0307388801851</v>
+        <v>365.8655553743805</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19961,28 +20035,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7238785019640364</v>
+        <v>0.736217154021894</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05951512085917199</v>
+        <v>0.06192496232938471</v>
       </c>
       <c r="M6" t="n">
-        <v>16.86029303640029</v>
+        <v>16.83564293797365</v>
       </c>
       <c r="N6" t="n">
-        <v>455.8946666341178</v>
+        <v>454.4752916815756</v>
       </c>
       <c r="O6" t="n">
-        <v>21.35169001821912</v>
+        <v>21.31842610704589</v>
       </c>
       <c r="P6" t="n">
-        <v>366.4920867902113</v>
+        <v>366.3693252089245</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20020,7 +20094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36795,6 +36869,80 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-36.836225291317774,174.4280671644</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-36.83583493243558,174.426820540697</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-36.835203306889206,174.42636834727068</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-36.83453864609572,174.4260249158459</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-36.833853672208555,174.42574835364138</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-36.83626816608957,174.4279259867048</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-36.835836270289185,174.42681613529692</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-36.83519028948036,174.42641121221865</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-36.83453332207132,174.42604244728915</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-36.833834889557956,174.42581020266257</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G537"/>
+  <dimension ref="A1:G538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13426,6 +13426,31 @@
         <v>395.07</v>
       </c>
       <c r="G537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>302.2176190476191</v>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="n">
+        <v>388.2366666666667</v>
+      </c>
+      <c r="E538" t="n">
+        <v>382.2728571428572</v>
+      </c>
+      <c r="F538" t="n">
+        <v>374.8066666666667</v>
+      </c>
+      <c r="G538" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13442,7 +13467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19550,6 +19575,16 @@
       </c>
       <c r="B610" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -19723,28 +19758,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6094964948169884</v>
+        <v>0.5930232660568052</v>
       </c>
       <c r="J2" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K2" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02758127033483493</v>
+        <v>0.02620321225996547</v>
       </c>
       <c r="M2" t="n">
-        <v>22.0857023416346</v>
+        <v>22.07889632941756</v>
       </c>
       <c r="N2" t="n">
-        <v>760.2147605596725</v>
+        <v>760.9425103888302</v>
       </c>
       <c r="O2" t="n">
-        <v>27.57199232118841</v>
+        <v>27.58518643019891</v>
       </c>
       <c r="P2" t="n">
-        <v>318.738453200812</v>
+        <v>318.8948419286755</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19804,7 +19839,7 @@
         <v>1.290096858990642</v>
       </c>
       <c r="J3" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
         <v>354</v>
@@ -19879,28 +19914,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.299257746136879</v>
+        <v>1.298987636328661</v>
       </c>
       <c r="J4" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K4" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1505655961604534</v>
+        <v>0.151222473786815</v>
       </c>
       <c r="M4" t="n">
-        <v>18.45196222921498</v>
+        <v>18.40553986737153</v>
       </c>
       <c r="N4" t="n">
-        <v>560.8789966531668</v>
+        <v>559.4229432655774</v>
       </c>
       <c r="O4" t="n">
-        <v>23.68288404424526</v>
+        <v>23.65212344094241</v>
       </c>
       <c r="P4" t="n">
-        <v>355.1485589549665</v>
+        <v>355.15110232099</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19957,28 +19992,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7849841101968538</v>
+        <v>0.783087721519085</v>
       </c>
       <c r="J5" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08068478338969964</v>
+        <v>0.08071685505653658</v>
       </c>
       <c r="M5" t="n">
-        <v>15.38431467055789</v>
+        <v>15.35661056459802</v>
       </c>
       <c r="N5" t="n">
-        <v>389.4499323035303</v>
+        <v>388.534919818518</v>
       </c>
       <c r="O5" t="n">
-        <v>19.73448586367353</v>
+        <v>19.71128914654031</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8655553743805</v>
+        <v>365.8841786198262</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20035,28 +20070,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.736217154021894</v>
+        <v>0.7311137485970481</v>
       </c>
       <c r="J6" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K6" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06192496232938471</v>
+        <v>0.06138400330938709</v>
       </c>
       <c r="M6" t="n">
-        <v>16.83564293797365</v>
+        <v>16.82184425463619</v>
       </c>
       <c r="N6" t="n">
-        <v>454.4752916815756</v>
+        <v>453.6233117211764</v>
       </c>
       <c r="O6" t="n">
-        <v>21.31842610704589</v>
+        <v>21.29843448991443</v>
       </c>
       <c r="P6" t="n">
-        <v>366.3693252089245</v>
+        <v>366.4203210642631</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20094,7 +20129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G537"/>
+  <dimension ref="A1:G538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23547,7 +23582,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-36.833798874347586,174.42592879606306</t>
+          <t>-36.83379887434758,174.42592879606306</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -36943,6 +36978,39 @@
         </is>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-36.836238743077104,174.4280228706336</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-36.835162948625246,174.42650124254595</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-36.83446904223969,174.42625411304672</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-36.83377034452743,174.42602274069492</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G538"/>
+  <dimension ref="A1:G539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13453,6 +13453,33 @@
       <c r="G538" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>306.36</v>
+      </c>
+      <c r="C539" t="n">
+        <v>405.58</v>
+      </c>
+      <c r="D539" t="n">
+        <v>420.71</v>
+      </c>
+      <c r="E539" t="n">
+        <v>401.15</v>
+      </c>
+      <c r="F539" t="n">
+        <v>394.11</v>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B611"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19585,6 +19612,16 @@
       </c>
       <c r="B611" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -19758,28 +19795,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5930232660568052</v>
+        <v>0.5788844941443771</v>
       </c>
       <c r="J2" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02620321225996547</v>
+        <v>0.02507304714921699</v>
       </c>
       <c r="M2" t="n">
-        <v>22.07889632941756</v>
+        <v>22.06669700721973</v>
       </c>
       <c r="N2" t="n">
-        <v>760.9425103888302</v>
+        <v>760.9716982538605</v>
       </c>
       <c r="O2" t="n">
-        <v>27.58518643019891</v>
+        <v>27.58571547474998</v>
       </c>
       <c r="P2" t="n">
-        <v>318.8948419286755</v>
+        <v>319.0292120662362</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19836,28 +19873,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.290096858990642</v>
+        <v>1.314662947000431</v>
       </c>
       <c r="J3" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05058025178751291</v>
+        <v>0.05256846577765228</v>
       </c>
       <c r="M3" t="n">
-        <v>33.66706385360403</v>
+        <v>33.66514250175047</v>
       </c>
       <c r="N3" t="n">
-        <v>1716.661303451205</v>
+        <v>1717.264987796431</v>
       </c>
       <c r="O3" t="n">
-        <v>41.43261159342003</v>
+        <v>41.43989608814712</v>
       </c>
       <c r="P3" t="n">
-        <v>328.0130821669152</v>
+        <v>327.7684706175812</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19914,28 +19951,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.298987636328661</v>
+        <v>1.314600180076777</v>
       </c>
       <c r="J4" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.151222473786815</v>
+        <v>0.154423500547893</v>
       </c>
       <c r="M4" t="n">
-        <v>18.40553986737153</v>
+        <v>18.43580053082345</v>
       </c>
       <c r="N4" t="n">
-        <v>559.4229432655774</v>
+        <v>560.5888190849723</v>
       </c>
       <c r="O4" t="n">
-        <v>23.65212344094241</v>
+        <v>23.67675693765876</v>
       </c>
       <c r="P4" t="n">
-        <v>355.15110232099</v>
+        <v>355.0039331552139</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19992,28 +20029,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.783087721519085</v>
+        <v>0.7902992580559374</v>
       </c>
       <c r="J5" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08071685505653658</v>
+        <v>0.08238457523838183</v>
       </c>
       <c r="M5" t="n">
-        <v>15.35661056459802</v>
+        <v>15.35411968567677</v>
       </c>
       <c r="N5" t="n">
-        <v>388.534919818518</v>
+        <v>388.1300068263686</v>
       </c>
       <c r="O5" t="n">
-        <v>19.71128914654031</v>
+        <v>19.70101537551729</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8841786198262</v>
+        <v>365.8132864329107</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20070,28 +20107,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7311137485970481</v>
+        <v>0.7352920330087952</v>
       </c>
       <c r="J6" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06138400330938709</v>
+        <v>0.06231970345886739</v>
       </c>
       <c r="M6" t="n">
-        <v>16.82184425463619</v>
+        <v>16.80029012442206</v>
       </c>
       <c r="N6" t="n">
-        <v>453.6233117211764</v>
+        <v>452.6860511107906</v>
       </c>
       <c r="O6" t="n">
-        <v>21.29843448991443</v>
+        <v>21.27642007271878</v>
       </c>
       <c r="P6" t="n">
-        <v>366.4203210642631</v>
+        <v>366.3785253767554</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20129,7 +20166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G538"/>
+  <dimension ref="A1:G539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37011,6 +37048,43 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-36.83625193846666,174.42797942097062</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-36.83589309706544,174.42662901053765</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-36.83526638695644,174.42616063037346</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-36.834529172060805,174.4260561128227</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-36.833831831667254,174.42582027191798</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13480,6 +13480,31 @@
       <c r="G539" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>325.9409523809524</v>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="n">
+        <v>416.9033333333333</v>
+      </c>
+      <c r="E540" t="n">
+        <v>414.0328571428571</v>
+      </c>
+      <c r="F540" t="n">
+        <v>417.5233333333333</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19622,6 +19647,16 @@
       </c>
       <c r="B612" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -19795,28 +19830,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5788844941443771</v>
+        <v>0.574748287307343</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02507304714921699</v>
+        <v>0.02485830292396152</v>
       </c>
       <c r="M2" t="n">
-        <v>22.06669700721973</v>
+        <v>22.02195998497201</v>
       </c>
       <c r="N2" t="n">
-        <v>760.9716982538605</v>
+        <v>759.1376989969012</v>
       </c>
       <c r="O2" t="n">
-        <v>27.58571547474998</v>
+        <v>27.55245359304505</v>
       </c>
       <c r="P2" t="n">
-        <v>319.0292120662362</v>
+        <v>319.0687305222825</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19876,7 +19911,7 @@
         <v>1.314662947000431</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K3" t="n">
         <v>355</v>
@@ -19951,28 +19986,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.314600180076777</v>
+        <v>1.328174936441676</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K4" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.154423500547893</v>
+        <v>0.157396597251989</v>
       </c>
       <c r="M4" t="n">
-        <v>18.43580053082345</v>
+        <v>18.45603369481949</v>
       </c>
       <c r="N4" t="n">
-        <v>560.5888190849723</v>
+        <v>561.1058309436426</v>
       </c>
       <c r="O4" t="n">
-        <v>23.67675693765876</v>
+        <v>23.68767255227162</v>
       </c>
       <c r="P4" t="n">
-        <v>355.0039331552139</v>
+        <v>354.8752765047573</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20029,28 +20064,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7902992580559374</v>
+        <v>0.8036448384998186</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08238457523838183</v>
+        <v>0.0850007668463616</v>
       </c>
       <c r="M5" t="n">
-        <v>15.35411968567677</v>
+        <v>15.38101365690095</v>
       </c>
       <c r="N5" t="n">
-        <v>388.1300068263686</v>
+        <v>389.0320580582434</v>
       </c>
       <c r="O5" t="n">
-        <v>19.70101537551729</v>
+        <v>19.72389561061008</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8132864329107</v>
+        <v>365.6814288702599</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20107,28 +20142,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7352920330087952</v>
+        <v>0.7506239753731236</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K6" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06231970345886739</v>
+        <v>0.06475371829435395</v>
       </c>
       <c r="M6" t="n">
-        <v>16.80029012442206</v>
+        <v>16.8320025440092</v>
       </c>
       <c r="N6" t="n">
-        <v>452.6860511107906</v>
+        <v>454.0827190845761</v>
       </c>
       <c r="O6" t="n">
-        <v>21.27642007271878</v>
+        <v>21.30921676375216</v>
       </c>
       <c r="P6" t="n">
-        <v>366.3785253767554</v>
+        <v>366.2243530887885</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20166,7 +20201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37085,6 +37120,39 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-36.83631431259967,174.42777403506946</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-36.835254261510826,174.42620055847627</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-36.83457020795232,174.42592098580255</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-36.83390640998512,174.42557469373025</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13503,6 +13503,56 @@
         <v>417.5233333333333</v>
       </c>
       <c r="G540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>299.8233333333333</v>
+      </c>
+      <c r="C541" t="n">
+        <v>384.23</v>
+      </c>
+      <c r="D541" t="n">
+        <v>406.6966666666667</v>
+      </c>
+      <c r="E541" t="n">
+        <v>418.12</v>
+      </c>
+      <c r="F541" t="n">
+        <v>413.7266666666667</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>319.3519047619047</v>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="n">
+        <v>381.6857142857143</v>
+      </c>
+      <c r="F542" t="n">
+        <v>392.6466666666667</v>
+      </c>
+      <c r="G542" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13519,7 +13569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19657,6 +19707,26 @@
       </c>
       <c r="B613" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -19830,28 +19900,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.574748287307343</v>
+        <v>0.5502819538129929</v>
       </c>
       <c r="J2" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02485830292396152</v>
+        <v>0.0229827608018105</v>
       </c>
       <c r="M2" t="n">
-        <v>22.02195998497201</v>
+        <v>21.98550191866735</v>
       </c>
       <c r="N2" t="n">
-        <v>759.1376989969012</v>
+        <v>758.7399333773815</v>
       </c>
       <c r="O2" t="n">
-        <v>27.55245359304505</v>
+        <v>27.54523431335049</v>
       </c>
       <c r="P2" t="n">
-        <v>319.0687305222825</v>
+        <v>319.3027869692295</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19908,28 +19978,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.314662947000431</v>
+        <v>1.327068419837674</v>
       </c>
       <c r="J3" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05256846577765228</v>
+        <v>0.05378438499624449</v>
       </c>
       <c r="M3" t="n">
-        <v>33.66514250175047</v>
+        <v>33.61678577441626</v>
       </c>
       <c r="N3" t="n">
-        <v>1717.264987796431</v>
+        <v>1713.816687532474</v>
       </c>
       <c r="O3" t="n">
-        <v>41.43989608814712</v>
+        <v>41.3982691369153</v>
       </c>
       <c r="P3" t="n">
-        <v>327.7684706175812</v>
+        <v>327.6442126986947</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19986,28 +20056,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.328174936441676</v>
+        <v>1.336570051686621</v>
       </c>
       <c r="J4" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.157396597251989</v>
+        <v>0.159632155985365</v>
       </c>
       <c r="M4" t="n">
-        <v>18.45603369481949</v>
+        <v>18.45072883760756</v>
       </c>
       <c r="N4" t="n">
-        <v>561.1058309436426</v>
+        <v>560.4191881639657</v>
       </c>
       <c r="O4" t="n">
-        <v>23.68767255227162</v>
+        <v>23.67317444205499</v>
       </c>
       <c r="P4" t="n">
-        <v>354.8752765047573</v>
+        <v>354.7956355098696</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20064,28 +20134,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8036448384998186</v>
+        <v>0.8162855001705351</v>
       </c>
       <c r="J5" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0850007668463616</v>
+        <v>0.08780816148860282</v>
       </c>
       <c r="M5" t="n">
-        <v>15.38101365690095</v>
+        <v>15.39313278950081</v>
       </c>
       <c r="N5" t="n">
-        <v>389.0320580582434</v>
+        <v>389.5984925787383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.72389561061008</v>
+        <v>19.73824948111504</v>
       </c>
       <c r="P5" t="n">
-        <v>365.6814288702599</v>
+        <v>365.5564539609373</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20142,28 +20212,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7506239753731236</v>
+        <v>0.7670822516660525</v>
       </c>
       <c r="J6" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K6" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06475371829435395</v>
+        <v>0.06779911451736242</v>
       </c>
       <c r="M6" t="n">
-        <v>16.8320025440092</v>
+        <v>16.82773286548589</v>
       </c>
       <c r="N6" t="n">
-        <v>454.0827190845761</v>
+        <v>453.8641559166279</v>
       </c>
       <c r="O6" t="n">
-        <v>21.30921676375216</v>
+        <v>21.30408777480575</v>
       </c>
       <c r="P6" t="n">
-        <v>366.2243530887885</v>
+        <v>366.058666902571</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20201,7 +20271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37153,6 +37223,72 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-36.836231116168186,174.42804798442194</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-36.835825089650605,174.42685295184992</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-36.83522174996206,174.42630761607487</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-36.83458322673713,174.42587811613245</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-36.83389431652465,174.4256145163086</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-36.83629332356078,174.42784314806295</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-36.834467171994106,174.42626027151684</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-36.83382717050584,174.4258356205384</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13553,6 +13553,112 @@
         <v>392.6466666666667</v>
       </c>
       <c r="G542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:12:15+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>318.8457142857143</v>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="E543" t="n">
+        <v>406.9671428571429</v>
+      </c>
+      <c r="F543" t="n">
+        <v>405.57</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>313.0242857142857</v>
+      </c>
+      <c r="C544" t="n">
+        <v>374.09</v>
+      </c>
+      <c r="D544" t="n">
+        <v>377.32</v>
+      </c>
+      <c r="E544" t="n">
+        <v>374.7228571428572</v>
+      </c>
+      <c r="F544" t="n">
+        <v>381.91</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:12:20+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>321.8042857142857</v>
+      </c>
+      <c r="C545" t="n">
+        <v>355.98</v>
+      </c>
+      <c r="D545" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="E545" t="n">
+        <v>370.7528571428572</v>
+      </c>
+      <c r="F545" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>309.9804761904762</v>
+      </c>
+      <c r="C546" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="D546" t="n">
+        <v>388.5366666666667</v>
+      </c>
+      <c r="E546" t="n">
+        <v>388.9614285714285</v>
+      </c>
+      <c r="F546" t="n">
+        <v>392.9566666666667</v>
+      </c>
+      <c r="G546" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13569,7 +13675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19727,6 +19833,46 @@
       </c>
       <c r="B615" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +20046,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5502819538129929</v>
+        <v>0.5155762983441413</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K2" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0229827608018105</v>
+        <v>0.02058862554175511</v>
       </c>
       <c r="M2" t="n">
-        <v>21.98550191866735</v>
+        <v>21.86749283937466</v>
       </c>
       <c r="N2" t="n">
-        <v>758.7399333773815</v>
+        <v>754.2589627848971</v>
       </c>
       <c r="O2" t="n">
-        <v>27.54523431335049</v>
+        <v>27.46377546487185</v>
       </c>
       <c r="P2" t="n">
-        <v>319.3027869692295</v>
+        <v>319.6363215498957</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19978,28 +20124,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.327068419837674</v>
+        <v>1.337607027108058</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05378438499624449</v>
+        <v>0.05552358312111738</v>
       </c>
       <c r="M3" t="n">
-        <v>33.61678577441626</v>
+        <v>33.41077520183979</v>
       </c>
       <c r="N3" t="n">
-        <v>1713.816687532474</v>
+        <v>1700.514851638844</v>
       </c>
       <c r="O3" t="n">
-        <v>41.3982691369153</v>
+        <v>41.237299276733</v>
       </c>
       <c r="P3" t="n">
-        <v>327.6442126986947</v>
+        <v>327.5381114143607</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20056,28 +20202,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.336570051686621</v>
+        <v>1.329946162130047</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K4" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.159632155985365</v>
+        <v>0.1606802771509955</v>
       </c>
       <c r="M4" t="n">
-        <v>18.45072883760756</v>
+        <v>18.39688364906639</v>
       </c>
       <c r="N4" t="n">
-        <v>560.4191881639657</v>
+        <v>556.997221455261</v>
       </c>
       <c r="O4" t="n">
-        <v>23.67317444205499</v>
+        <v>23.60078857697897</v>
       </c>
       <c r="P4" t="n">
-        <v>354.7956355098696</v>
+        <v>354.8589552459445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20134,28 +20280,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8162855001705351</v>
+        <v>0.813384435804394</v>
       </c>
       <c r="J5" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K5" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08780816148860282</v>
+        <v>0.08851810632701573</v>
       </c>
       <c r="M5" t="n">
-        <v>15.39313278950081</v>
+        <v>15.36672548474507</v>
       </c>
       <c r="N5" t="n">
-        <v>389.5984925787383</v>
+        <v>387.8197651235411</v>
       </c>
       <c r="O5" t="n">
-        <v>19.73824948111504</v>
+        <v>19.69314005240254</v>
       </c>
       <c r="P5" t="n">
-        <v>365.5564539609373</v>
+        <v>365.5854178284465</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20212,28 +20358,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7670822516660525</v>
+        <v>0.7747161095730508</v>
       </c>
       <c r="J6" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K6" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06779911451736242</v>
+        <v>0.0702113572094849</v>
       </c>
       <c r="M6" t="n">
-        <v>16.82773286548589</v>
+        <v>16.74850976693557</v>
       </c>
       <c r="N6" t="n">
-        <v>453.8641559166279</v>
+        <v>450.5896934734805</v>
       </c>
       <c r="O6" t="n">
-        <v>21.30408777480575</v>
+        <v>21.22709809355675</v>
       </c>
       <c r="P6" t="n">
-        <v>366.058666902571</v>
+        <v>365.9815738379611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20271,7 +20417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37289,6 +37435,150 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:12:15+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-36.836291711117994,174.4278484575296</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-36.83522876830245,174.42628450534707</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-36.83454770148181,174.42599509740242</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-36.83386833518291,174.42570007012725</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-36.8362731672507,174.42790951887676</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-36.83579278996519,174.42695931071881</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-36.83512817520795,174.42661574704155</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-36.834444992950885,174.4263333040564</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-36.83379297089989,174.42594823530055</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:12:20+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-36.836301135486345,174.42781742486764</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-36.83573510262199,174.4271492670097</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-36.835105877692534,174.42668916971533</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-36.8344323471451,174.42637494487147</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-36.83378860701839,174.42596260495077</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-36.83626347133663,174.42794144558295</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-36.8357994155493,174.42693749352247</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-36.835163904229084,174.426498095856</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-36.83449034754557,174.42618395741133</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-36.83382815795022,174.4258323690085</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G546"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13661,6 +13661,56 @@
       <c r="G546" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>322.5157142857143</v>
+      </c>
+      <c r="C547" t="n">
+        <v>322.26</v>
+      </c>
+      <c r="D547" t="n">
+        <v>388.81</v>
+      </c>
+      <c r="E547" t="n">
+        <v>387.4671428571429</v>
+      </c>
+      <c r="F547" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>318.5019047619048</v>
+      </c>
+      <c r="C548" t="n">
+        <v>342.53</v>
+      </c>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="n">
+        <v>346.3966666666667</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19873,6 +19923,26 @@
       </c>
       <c r="B619" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -20417,7 +20487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G546"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37579,6 +37649,72 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-36.83630340170219,174.42780996264258</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-36.835627690606884,174.42750295623884</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-36.83516477489029,174.42649522887177</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-36.83448558775629,174.42619963080108</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-36.833807113686625,174.4259016650358</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-36.836290615930935,174.42785206377113</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-36.83569225898538,174.4272903442414</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-36.83367984919687,174.42632072685745</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -20116,28 +20116,28 @@
         <v>0.1457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5155762983441413</v>
+        <v>0.5033977745168708</v>
       </c>
       <c r="J2" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02058862554175511</v>
+        <v>0.01983603738325046</v>
       </c>
       <c r="M2" t="n">
-        <v>21.86749283937466</v>
+        <v>21.79315721319972</v>
       </c>
       <c r="N2" t="n">
-        <v>754.2589627848971</v>
+        <v>751.1927395081691</v>
       </c>
       <c r="O2" t="n">
-        <v>27.46377546487185</v>
+        <v>27.4078955687621</v>
       </c>
       <c r="P2" t="n">
-        <v>319.6363215498957</v>
+        <v>319.7536103497101</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20194,28 +20194,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.337607027108058</v>
+        <v>1.304985546774483</v>
       </c>
       <c r="J3" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05552358312111738</v>
+        <v>0.05343124780199326</v>
       </c>
       <c r="M3" t="n">
-        <v>33.41077520183979</v>
+        <v>33.43300277648937</v>
       </c>
       <c r="N3" t="n">
-        <v>1700.514851638844</v>
+        <v>1696.615147903159</v>
       </c>
       <c r="O3" t="n">
-        <v>41.237299276733</v>
+        <v>41.18998844261988</v>
       </c>
       <c r="P3" t="n">
-        <v>327.5381114143607</v>
+        <v>327.8669444427188</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20272,28 +20272,28 @@
         <v>0.0333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.329946162130047</v>
+        <v>1.329539493394596</v>
       </c>
       <c r="J4" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K4" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1606802771509955</v>
+        <v>0.1613206657795729</v>
       </c>
       <c r="M4" t="n">
-        <v>18.39688364906639</v>
+        <v>18.35230602055907</v>
       </c>
       <c r="N4" t="n">
-        <v>556.997221455261</v>
+        <v>555.5817875133425</v>
       </c>
       <c r="O4" t="n">
-        <v>23.60078857697897</v>
+        <v>23.57078249684008</v>
       </c>
       <c r="P4" t="n">
-        <v>354.8589552459445</v>
+        <v>354.8628386902113</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20350,28 +20350,28 @@
         <v>0.0378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.813384435804394</v>
+        <v>0.8136590828899978</v>
       </c>
       <c r="J5" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08851810632701573</v>
+        <v>0.08898952098219248</v>
       </c>
       <c r="M5" t="n">
-        <v>15.36672548474507</v>
+        <v>15.33133968932029</v>
       </c>
       <c r="N5" t="n">
-        <v>387.8197651235411</v>
+        <v>386.8927996655556</v>
       </c>
       <c r="O5" t="n">
-        <v>19.69314005240254</v>
+        <v>19.66959073457187</v>
       </c>
       <c r="P5" t="n">
-        <v>365.5854178284465</v>
+        <v>365.5826850121575</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20428,28 +20428,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7747161095730508</v>
+        <v>0.7564845787236498</v>
       </c>
       <c r="J6" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0702113572094849</v>
+        <v>0.06725466470975172</v>
       </c>
       <c r="M6" t="n">
-        <v>16.74850976693557</v>
+        <v>16.77160937640197</v>
       </c>
       <c r="N6" t="n">
-        <v>450.5896934734805</v>
+        <v>452.2337802686819</v>
       </c>
       <c r="O6" t="n">
-        <v>21.22709809355675</v>
+        <v>21.26578896417158</v>
       </c>
       <c r="P6" t="n">
-        <v>365.9815738379611</v>
+        <v>366.1664192586137</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0178/nzd0178.xlsx
+++ b/data/nzd0178/nzd0178.xlsx
@@ -20107,13 +20107,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0851</v>
+        <v>0.0579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1457</v>
+        <v>0.0955</v>
       </c>
       <c r="I2" t="n">
         <v>0.5033743471425051</v>
@@ -20185,13 +20185,13 @@
         <v>0.7499999999986509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0216</v>
+        <v>0.0353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0357</v>
+        <v>0.0465</v>
       </c>
       <c r="I3" t="n">
         <v>1.304985546774483</v>
@@ -20263,13 +20263,13 @@
         <v>0.5000000000005126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0291</v>
+        <v>0.0303</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0333</v>
+        <v>0.037</v>
       </c>
       <c r="I4" t="n">
         <v>1.329562629600059</v>
@@ -20341,13 +20341,13 @@
         <v>0.2499999999991635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0308</v>
+        <v>0.0345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0378</v>
+        <v>0.043</v>
       </c>
       <c r="I5" t="n">
         <v>0.8136508926571356</v>
@@ -20419,13 +20419,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0291</v>
+        <v>0.0349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0357</v>
+        <v>0.0438</v>
       </c>
       <c r="I6" t="n">
         <v>0.7565058824031665</v>
